--- a/Texts/Геймплей/Зачищенные подземелья.xlsx
+++ b/Texts/Геймплей/Зачищенные подземелья.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>Англ. строка</t>
   </si>
@@ -133,6 +133,150 @@
   </si>
   <si>
     <t>[player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Ÿáìïîåâúê Ìåò[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D12P41A/m12a0801.ssb</t>
+  </si>
+  <si>
+    <t>Amp Plains</t>
+  </si>
+  <si>
+    <t>Скалистые Равнины</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared [CS:P]Amp Plains[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Скалистые Равнины[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Òëàìéòóúå Ñàâîéîú[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D24P31A/m99a0114.ssb</t>
+  </si>
+  <si>
+    <t>Treeshroud Forest</t>
+  </si>
+  <si>
+    <t>Заросший Лес</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared [CS:P]Treeshroud Forest[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Заросший Лес[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Èàñïòšéê Ìåò[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D26P43A/m99a0115.ssb</t>
+  </si>
+  <si>
+    <t>[CN]There appears to be no one here.</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared [CS:P]Brine Cave[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN]Похоже, здесь никого нет.</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Пещеру у Моря[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Ðïöïçå, èäåòû îéëïãï îåó.</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Ðåþåñô ô Íïñÿ[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D26P43A/m99a0119.ssb</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared [CS:P]Mystifying Forest[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Загадочный Лес[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Èàãàäïœîúê Ìåò[CR]!</t>
+  </si>
+  <si>
+    <t>Загадочный Лес</t>
+  </si>
+  <si>
+    <t>Mystifying Forest</t>
+  </si>
+  <si>
+    <t>Brine Cave</t>
+  </si>
+  <si>
+    <t>Пещера у Моря</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Óåíðïñàìûîôý Áàšîý[CR]!</t>
+  </si>
+  <si>
+    <t>Temporal Tower</t>
+  </si>
+  <si>
+    <t>Темпоральная Башня</t>
+  </si>
+  <si>
+    <t>Steam Caves</t>
+  </si>
+  <si>
+    <t>Паровые Пещеры</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Паровые Пещеры[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Ðàñïâúå Ðåþåñú[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Темпоральную Башню[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared [CS:P]Temporal Tower[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D15P41A/m99a0108.ssb</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared [CS:P]Quicksand Cave[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Зыбучие Пещеры[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Èúáôœéå Ðåþåñú[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D17P45A/m99a0113.ssb</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared [CS:P]Crystal Crossing[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Кристальный Переход[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Ëñéòóàìûîúê Ðåñåöïä[CR]!</t>
+  </si>
+  <si>
+    <t>Quicksand Cave</t>
+  </si>
+  <si>
+    <t>Зыбучие пещеры</t>
+  </si>
+  <si>
+    <t>Кристальный переход</t>
+  </si>
+  <si>
+    <t>Crystal Crossing</t>
   </si>
 </sst>
 </file>
@@ -182,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +402,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -352,6 +568,42 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -634,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +1123,362 @@
         <v>61</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Texts/Геймплей/Зачищенные подземелья.xlsx
+++ b/Texts/Геймплей/Зачищенные подземелья.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="128">
   <si>
     <t>Англ. строка</t>
   </si>
@@ -277,13 +277,139 @@
   </si>
   <si>
     <t>Crystal Crossing</t>
+  </si>
+  <si>
+    <t>SCRIPT/D79P41A/s02p1001.ssb</t>
+  </si>
+  <si>
+    <t>Crevice Cave</t>
+  </si>
+  <si>
+    <t>Пещера-Расщелина</t>
+  </si>
+  <si>
+    <t>[CN]This area\'s master isn\'t here.</t>
+  </si>
+  <si>
+    <t>[CN]It\'s impossible to go farther.[K]\n[CN]It\'s time to go back.</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared [CS:P]Crevice Cave[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN]Хозяина этого места здесь нет.</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Пещеру-Расщелину[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Öïèÿéîà üóïãï íåòóà èäåòû îåó.</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Ðåþåñô-Ñàòþåìéîô[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D35P41A/s03p1901.ssb</t>
+  </si>
+  <si>
+    <t>Miracle Sea</t>
+  </si>
+  <si>
+    <t>Дивное Море</t>
+  </si>
+  <si>
+    <t>[CN]There is nothing here.</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared the [CS:P]Miracle Sea[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN]Ðïöïçå, èäåòû îéœåãï îåó.</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Äéâîïå Íïñå[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Дивное Море[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D32P31A/s04p2201.ssb</t>
+  </si>
+  <si>
+    <t>[CN]This area\'s master isn\'t here.\n[CN]Let\'s move on.</t>
+  </si>
+  <si>
+    <t>[CN]Хозяина этого места здесь нет.\n[CN]Нужно идти дальше.</t>
+  </si>
+  <si>
+    <t>[CN]Öïèÿéîà üóïãï íåòóà èäåòû îåó.\n[CN]Îôçîï éäóé äàìûšå.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D32P32A/s04p2201.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D32P33A/s04p2401.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D32P44A/s04p2101.ssb</t>
+  </si>
+  <si>
+    <t>Aegis Cave</t>
+  </si>
+  <si>
+    <t>Пещера Эгиды</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared the [CS:P]Aegis Cave[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Пещеру Эгиды[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Ðåþåñô Üãéäú[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D36P41A/s99p0120.ssb</t>
+  </si>
+  <si>
+    <t>Mt. Travail</t>
+  </si>
+  <si>
+    <t>Г. Травейл</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared [CS:P]Mt. Travail[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Гору Травейл[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Ãïñô Óñàâåêì[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D41P41A/m99p0124.ssb</t>
+  </si>
+  <si>
+    <t>Тёмный Кратер</t>
+  </si>
+  <si>
+    <t>Dark Crater</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared the [CS:P]Dark Crater[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Тёмный Кратер[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Óæíîúê Ëñàóåñ[CR]!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +451,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +607,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -604,6 +755,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -886,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,6 +1652,243 @@
         <v>81</v>
       </c>
     </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Texts/Геймплей/Зачищенные подземелья.xlsx
+++ b/Texts/Геймплей/Зачищенные подземелья.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="157">
   <si>
     <t>Англ. строка</t>
   </si>
@@ -403,6 +403,93 @@
   </si>
   <si>
     <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Óæíîúê Ëñàóåñ[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] cleared [CS:P]Spacial Rift[CR]\n[CN]in admirable fashion!</t>
+  </si>
+  <si>
+    <t>[CN][player] восхитительным образом\n[CN]зачищает [CS:P]Пространственный Разлом[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] âïòöéóéóåìûîúí ïáñàèïí\n[CN]èàœéþàåó [CS:P]Ðñïòóñàîòóâåîîúê Ñàèìïí[CR]!</t>
+  </si>
+  <si>
+    <t>Пространственный Разлом</t>
+  </si>
+  <si>
+    <t>Spacial Rift</t>
+  </si>
+  <si>
+    <t>SCRIPT/D63P41A/m99a0142.ssb</t>
+  </si>
+  <si>
+    <t>Destiny Tower</t>
+  </si>
+  <si>
+    <t>Башня Судьбы</t>
+  </si>
+  <si>
+    <t>[CN][player] examined the statue!</t>
+  </si>
+  <si>
+    <t>[CN]\n[CN]\"Across time and space...one heart...\"</t>
+  </si>
+  <si>
+    <t>(Is this the Legendary Pokémon [CS:N]Arceus[CR]\nwho created everything...?)</t>
+  </si>
+  <si>
+    <t>[CN][player] has cleared\n[CN][CS:P]Destiny Tower[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] obtained the\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t>[CN][player] осматривает статую!</t>
+  </si>
+  <si>
+    <t>[CN]\n[CN]\"Сквозь время и пространство...\n[CN]Единое сердце...\"</t>
+  </si>
+  <si>
+    <t>[CN][player] зачищает\n[CN][CS:P]Башню Судьбы[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] получает предмет\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t>[CN][player] ïòíàóñéâàåó òóàóôý!</t>
+  </si>
+  <si>
+    <t>[CN]\n[CN]\"Òëâïèû âñåíÿ é ðñïòóñàîòóâï...\n[CN]Åäéîïå òåñäøå...\"</t>
+  </si>
+  <si>
+    <t>[CN][player] èàœéþàåó\n[CN][CS:P]Áàšîý Òôäûáú[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] ðïìôœàåó ðñåäíåó\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t>(Это Легендарный Покемон [CS:N]Арсеус[CR], создатель\nвсего сущего?..)</t>
+  </si>
+  <si>
+    <t>(Üóï Ìåãåîäàñîúê Ðïëåíïî [CS:N]Àñòåôò[CR], òïèäàóåìû\nâòåãï òôþåãï?..)</t>
+  </si>
+  <si>
+    <t>SCRIPT/D42P42A/m99a0141.ssb</t>
+  </si>
+  <si>
+    <t>Star Cave</t>
+  </si>
+  <si>
+    <t>Пещера Звёзд</t>
+  </si>
+  <si>
+    <t>[CN][player] has cleared\n[CN][CS:P]Star Cave[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] зачищает\n[CN][CS:P]Пещеру Звёзд[CR]!</t>
+  </si>
+  <si>
+    <t>[CN][player] èàœéþàåó\n[CN][CS:P]Ðåþåñô Èâæèä[CR]!</t>
   </si>
 </sst>
 </file>
@@ -459,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -775,10 +868,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1848,7 +1944,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="24" t="s">
         <v>122</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -1862,7 +1958,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="25" t="s">
         <v>124</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1876,7 +1972,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="26" t="s">
         <v>123</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -1887,6 +1983,154 @@
       </c>
       <c r="D55" s="6" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="39"/>
+      <c r="B62" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="41"/>
+      <c r="B63" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A66" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
